--- a/data/raw/election/voters-age-sex-education/2023/Ardahan.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Ardahan.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:25:37-89351381011" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="35">
   <si>
     <t>Ardahan</t>
   </si>
@@ -119,6 +118,12 @@
   </si>
   <si>
     <t>Posof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -666,16 +671,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1000,11 +1014,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:D162"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1023,48 +1035,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1121,8 +1133,8 @@
       <c r="G6" s="4">
         <v>639</v>
       </c>
-      <c r="H6" s="4">
-        <v>1.111</v>
+      <c r="H6" s="5">
+        <v>1111</v>
       </c>
       <c r="I6" s="4">
         <v>219</v>
@@ -1136,8 +1148,8 @@
       <c r="L6" s="4">
         <v>18</v>
       </c>
-      <c r="M6" s="5">
-        <v>2.0139999999999998</v>
+      <c r="M6" s="6">
+        <v>2014</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1160,8 +1172,8 @@
       <c r="G7" s="4">
         <v>417</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.1279999999999999</v>
+      <c r="H7" s="5">
+        <v>1128</v>
       </c>
       <c r="I7" s="4">
         <v>445</v>
@@ -1175,8 +1187,8 @@
       <c r="L7" s="4">
         <v>2</v>
       </c>
-      <c r="M7" s="5">
-        <v>2.0099999999999998</v>
+      <c r="M7" s="6">
+        <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1216,8 +1228,8 @@
       <c r="L8" s="4">
         <v>6</v>
       </c>
-      <c r="M8" s="5">
-        <v>1.788</v>
+      <c r="M8" s="6">
+        <v>1788</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1255,8 +1267,8 @@
       <c r="L9" s="4">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
-        <v>1.8169999999999999</v>
+      <c r="M9" s="6">
+        <v>1817</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1296,8 +1308,8 @@
       <c r="L10" s="4">
         <v>14</v>
       </c>
-      <c r="M10" s="5">
-        <v>1.7190000000000001</v>
+      <c r="M10" s="6">
+        <v>1719</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1335,8 +1347,8 @@
       <c r="L11" s="4">
         <v>11</v>
       </c>
-      <c r="M11" s="5">
-        <v>1.593</v>
+      <c r="M11" s="6">
+        <v>1593</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1376,8 +1388,8 @@
       <c r="L12" s="4">
         <v>21</v>
       </c>
-      <c r="M12" s="5">
-        <v>1.4870000000000001</v>
+      <c r="M12" s="6">
+        <v>1487</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1415,8 +1427,8 @@
       <c r="L13" s="4">
         <v>13</v>
       </c>
-      <c r="M13" s="5">
-        <v>1.3140000000000001</v>
+      <c r="M13" s="6">
+        <v>1314</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1456,8 +1468,8 @@
       <c r="L14" s="4">
         <v>5</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.474</v>
+      <c r="M14" s="6">
+        <v>1474</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1495,8 +1507,8 @@
       <c r="L15" s="4">
         <v>3</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.2210000000000001</v>
+      <c r="M15" s="6">
+        <v>1221</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1536,8 +1548,8 @@
       <c r="L16" s="4">
         <v>11</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.335</v>
+      <c r="M16" s="6">
+        <v>1335</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1575,8 +1587,8 @@
       <c r="L17" s="4">
         <v>12</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M17" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1616,8 +1628,8 @@
       <c r="L18" s="4">
         <v>5</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.105</v>
+      <c r="M18" s="6">
+        <v>1105</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1655,7 +1667,7 @@
       <c r="L19" s="4">
         <v>23</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="7">
         <v>993</v>
       </c>
     </row>
@@ -1696,7 +1708,7 @@
       <c r="L20" s="4">
         <v>9</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="7">
         <v>963</v>
       </c>
     </row>
@@ -1735,7 +1747,7 @@
       <c r="L21" s="4">
         <v>31</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="7">
         <v>902</v>
       </c>
     </row>
@@ -1776,7 +1788,7 @@
       <c r="L22" s="4">
         <v>9</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="7">
         <v>768</v>
       </c>
     </row>
@@ -1815,7 +1827,7 @@
       <c r="L23" s="4">
         <v>12</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="7">
         <v>806</v>
       </c>
     </row>
@@ -1856,7 +1868,7 @@
       <c r="L24" s="4">
         <v>10</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>760</v>
       </c>
     </row>
@@ -1895,7 +1907,7 @@
       <c r="L25" s="4">
         <v>16</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>703</v>
       </c>
     </row>
@@ -1936,7 +1948,7 @@
       <c r="L26" s="4">
         <v>6</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>566</v>
       </c>
     </row>
@@ -1975,7 +1987,7 @@
       <c r="L27" s="4">
         <v>9</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>649</v>
       </c>
     </row>
@@ -2016,7 +2028,7 @@
       <c r="L28" s="4">
         <v>11</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>730</v>
       </c>
     </row>
@@ -2055,54 +2067,54 @@
       <c r="L29" s="4">
         <v>19</v>
       </c>
-      <c r="M29" s="5">
-        <v>1</v>
+      <c r="M29" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6">
+        <v>1271</v>
+      </c>
+      <c r="D30" s="7">
         <v>856</v>
       </c>
-      <c r="E30" s="5">
-        <v>4.9089999999999998</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="G30" s="5">
-        <v>4.5129999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>7.7160000000000002</v>
-      </c>
-      <c r="I30" s="5">
-        <v>5.7530000000000001</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="E30" s="6">
+        <v>4909</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2542</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4513</v>
+      </c>
+      <c r="H30" s="6">
+        <v>7716</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5753</v>
+      </c>
+      <c r="J30" s="7">
         <v>756</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <v>189</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>280</v>
       </c>
-      <c r="M30" s="5">
-        <v>28.785</v>
+      <c r="M30" s="6">
+        <v>28785</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2174,7 +2186,7 @@
       <c r="L32" s="4">
         <v>2</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="7">
         <v>410</v>
       </c>
     </row>
@@ -2213,7 +2225,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="7">
         <v>447</v>
       </c>
     </row>
@@ -2254,7 +2266,7 @@
       <c r="L34" s="4">
         <v>3</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="7">
         <v>314</v>
       </c>
     </row>
@@ -2293,7 +2305,7 @@
       <c r="L35" s="4">
         <v>1</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="7">
         <v>257</v>
       </c>
     </row>
@@ -2334,7 +2346,7 @@
       <c r="L36" s="4">
         <v>3</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="7">
         <v>248</v>
       </c>
     </row>
@@ -2373,7 +2385,7 @@
       <c r="L37" s="4">
         <v>3</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="7">
         <v>216</v>
       </c>
     </row>
@@ -2414,7 +2426,7 @@
       <c r="L38" s="4">
         <v>2</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="7">
         <v>252</v>
       </c>
     </row>
@@ -2453,7 +2465,7 @@
       <c r="L39" s="4">
         <v>3</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="7">
         <v>224</v>
       </c>
     </row>
@@ -2494,7 +2506,7 @@
       <c r="L40" s="4">
         <v>2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="7">
         <v>322</v>
       </c>
     </row>
@@ -2533,7 +2545,7 @@
       <c r="L41" s="4">
         <v>5</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="7">
         <v>248</v>
       </c>
     </row>
@@ -2574,7 +2586,7 @@
       <c r="L42" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="7">
         <v>313</v>
       </c>
     </row>
@@ -2613,7 +2625,7 @@
       <c r="L43" s="4">
         <v>1</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="7">
         <v>250</v>
       </c>
     </row>
@@ -2654,7 +2666,7 @@
       <c r="L44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="7">
         <v>277</v>
       </c>
     </row>
@@ -2693,7 +2705,7 @@
       <c r="L45" s="4">
         <v>3</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <v>273</v>
       </c>
     </row>
@@ -2734,7 +2746,7 @@
       <c r="L46" s="4">
         <v>2</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="7">
         <v>310</v>
       </c>
     </row>
@@ -2773,7 +2785,7 @@
       <c r="L47" s="4">
         <v>7</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="7">
         <v>256</v>
       </c>
     </row>
@@ -2814,7 +2826,7 @@
       <c r="L48" s="4">
         <v>1</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="7">
         <v>288</v>
       </c>
     </row>
@@ -2853,7 +2865,7 @@
       <c r="L49" s="4">
         <v>4</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="7">
         <v>256</v>
       </c>
     </row>
@@ -2894,7 +2906,7 @@
       <c r="L50" s="4">
         <v>2</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <v>200</v>
       </c>
     </row>
@@ -2933,7 +2945,7 @@
       <c r="L51" s="4">
         <v>9</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="7">
         <v>225</v>
       </c>
     </row>
@@ -2974,7 +2986,7 @@
       <c r="L52" s="4">
         <v>3</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>186</v>
       </c>
     </row>
@@ -3013,7 +3025,7 @@
       <c r="L53" s="4">
         <v>5</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>218</v>
       </c>
     </row>
@@ -3054,7 +3066,7 @@
       <c r="L54" s="4">
         <v>10</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>300</v>
       </c>
     </row>
@@ -3093,7 +3105,7 @@
       <c r="L55" s="4">
         <v>15</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="7">
         <v>427</v>
       </c>
     </row>
@@ -3101,46 +3113,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="7">
         <v>510</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="7">
         <v>328</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>1828</v>
+      </c>
+      <c r="F56" s="7">
         <v>594</v>
       </c>
-      <c r="G56" s="5">
-        <v>1.081</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="G56" s="6">
+        <v>1081</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1435</v>
+      </c>
+      <c r="I56" s="7">
         <v>772</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="7">
         <v>74</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>8</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>87</v>
       </c>
-      <c r="M56" s="5">
-        <v>6.7169999999999996</v>
+      <c r="M56" s="6">
+        <v>6717</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3212,7 +3224,7 @@
       <c r="L58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="7">
         <v>197</v>
       </c>
     </row>
@@ -3251,7 +3263,7 @@
       <c r="L59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="7">
         <v>196</v>
       </c>
     </row>
@@ -3292,7 +3304,7 @@
       <c r="L60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="7">
         <v>170</v>
       </c>
     </row>
@@ -3331,7 +3343,7 @@
       <c r="L61" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="7">
         <v>119</v>
       </c>
     </row>
@@ -3372,7 +3384,7 @@
       <c r="L62" s="4">
         <v>1</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="7">
         <v>191</v>
       </c>
     </row>
@@ -3411,7 +3423,7 @@
       <c r="L63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="7">
         <v>135</v>
       </c>
     </row>
@@ -3452,7 +3464,7 @@
       <c r="L64" s="4">
         <v>1</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="7">
         <v>176</v>
       </c>
     </row>
@@ -3491,7 +3503,7 @@
       <c r="L65" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="7">
         <v>111</v>
       </c>
     </row>
@@ -3532,7 +3544,7 @@
       <c r="L66" s="4">
         <v>2</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="7">
         <v>178</v>
       </c>
     </row>
@@ -3571,7 +3583,7 @@
       <c r="L67" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="7">
         <v>137</v>
       </c>
     </row>
@@ -3612,7 +3624,7 @@
       <c r="L68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="7">
         <v>197</v>
       </c>
     </row>
@@ -3651,7 +3663,7 @@
       <c r="L69" s="4">
         <v>2</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="7">
         <v>163</v>
       </c>
     </row>
@@ -3692,7 +3704,7 @@
       <c r="L70" s="4">
         <v>3</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="7">
         <v>177</v>
       </c>
     </row>
@@ -3731,7 +3743,7 @@
       <c r="L71" s="4">
         <v>1</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="7">
         <v>152</v>
       </c>
     </row>
@@ -3772,7 +3784,7 @@
       <c r="L72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="7">
         <v>165</v>
       </c>
     </row>
@@ -3811,7 +3823,7 @@
       <c r="L73" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="7">
         <v>162</v>
       </c>
     </row>
@@ -3852,7 +3864,7 @@
       <c r="L74" s="4">
         <v>1</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="7">
         <v>166</v>
       </c>
     </row>
@@ -3891,7 +3903,7 @@
       <c r="L75" s="4">
         <v>1</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="7">
         <v>150</v>
       </c>
     </row>
@@ -3932,7 +3944,7 @@
       <c r="L76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="7">
         <v>133</v>
       </c>
     </row>
@@ -3971,7 +3983,7 @@
       <c r="L77" s="4">
         <v>1</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="7">
         <v>137</v>
       </c>
     </row>
@@ -4012,7 +4024,7 @@
       <c r="L78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>120</v>
       </c>
     </row>
@@ -4051,7 +4063,7 @@
       <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>178</v>
       </c>
     </row>
@@ -4092,7 +4104,7 @@
       <c r="L80" s="4">
         <v>2</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>126</v>
       </c>
     </row>
@@ -4131,7 +4143,7 @@
       <c r="L81" s="4">
         <v>1</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="7">
         <v>204</v>
       </c>
     </row>
@@ -4139,46 +4151,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="7">
         <v>302</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="7">
         <v>208</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.103</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>1103</v>
+      </c>
+      <c r="F82" s="7">
         <v>624</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="7">
         <v>607</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="7">
         <v>617</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I82" s="7">
         <v>315</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="7">
         <v>45</v>
       </c>
-      <c r="K82" s="5">
-        <v>1</v>
-      </c>
-      <c r="L82" s="5">
+      <c r="K82" s="7">
+        <v>1</v>
+      </c>
+      <c r="L82" s="7">
         <v>18</v>
       </c>
-      <c r="M82" s="5">
-        <v>3.84</v>
+      <c r="M82" s="6">
+        <v>3840</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4250,8 +4262,8 @@
       <c r="L84" s="4">
         <v>9</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.3</v>
+      <c r="M84" s="6">
+        <v>1300</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4289,8 +4301,8 @@
       <c r="L85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.2350000000000001</v>
+      <c r="M85" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4330,7 +4342,7 @@
       <c r="L86" s="4">
         <v>5</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="7">
         <v>919</v>
       </c>
     </row>
@@ -4369,7 +4381,7 @@
       <c r="L87" s="4">
         <v>4</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="7">
         <v>855</v>
       </c>
     </row>
@@ -4410,7 +4422,7 @@
       <c r="L88" s="4">
         <v>8</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="7">
         <v>693</v>
       </c>
     </row>
@@ -4449,7 +4461,7 @@
       <c r="L89" s="4">
         <v>12</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="7">
         <v>644</v>
       </c>
     </row>
@@ -4490,7 +4502,7 @@
       <c r="L90" s="4">
         <v>6</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="7">
         <v>651</v>
       </c>
     </row>
@@ -4529,7 +4541,7 @@
       <c r="L91" s="4">
         <v>3</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="7">
         <v>584</v>
       </c>
     </row>
@@ -4570,7 +4582,7 @@
       <c r="L92" s="4">
         <v>9</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="7">
         <v>826</v>
       </c>
     </row>
@@ -4609,7 +4621,7 @@
       <c r="L93" s="4">
         <v>6</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="7">
         <v>662</v>
       </c>
     </row>
@@ -4650,7 +4662,7 @@
       <c r="L94" s="4">
         <v>14</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="7">
         <v>839</v>
       </c>
     </row>
@@ -4689,7 +4701,7 @@
       <c r="L95" s="4">
         <v>11</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="7">
         <v>698</v>
       </c>
     </row>
@@ -4730,7 +4742,7 @@
       <c r="L96" s="4">
         <v>5</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="7">
         <v>751</v>
       </c>
     </row>
@@ -4769,7 +4781,7 @@
       <c r="L97" s="4">
         <v>7</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="7">
         <v>615</v>
       </c>
     </row>
@@ -4810,7 +4822,7 @@
       <c r="L98" s="4">
         <v>3</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="7">
         <v>736</v>
       </c>
     </row>
@@ -4849,7 +4861,7 @@
       <c r="L99" s="4">
         <v>21</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="7">
         <v>663</v>
       </c>
     </row>
@@ -4890,7 +4902,7 @@
       <c r="L100" s="4">
         <v>3</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>549</v>
       </c>
     </row>
@@ -4929,7 +4941,7 @@
       <c r="L101" s="4">
         <v>9</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>543</v>
       </c>
     </row>
@@ -4970,7 +4982,7 @@
       <c r="L102" s="4">
         <v>5</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>548</v>
       </c>
     </row>
@@ -5009,7 +5021,7 @@
       <c r="L103" s="4">
         <v>11</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>541</v>
       </c>
     </row>
@@ -5050,7 +5062,7 @@
       <c r="L104" s="4">
         <v>6</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>421</v>
       </c>
     </row>
@@ -5089,7 +5101,7 @@
       <c r="L105" s="4">
         <v>18</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>476</v>
       </c>
     </row>
@@ -5130,7 +5142,7 @@
       <c r="L106" s="4">
         <v>13</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>649</v>
       </c>
     </row>
@@ -5169,7 +5181,7 @@
       <c r="L107" s="4">
         <v>33</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>843</v>
       </c>
     </row>
@@ -5177,46 +5189,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>1.0840000000000001</v>
-      </c>
-      <c r="D108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="6">
+        <v>1084</v>
+      </c>
+      <c r="D108" s="7">
         <v>744</v>
       </c>
-      <c r="E108" s="5">
-        <v>4.6120000000000001</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>3.165</v>
-      </c>
-      <c r="H108" s="5">
-        <v>3.915</v>
-      </c>
-      <c r="I108" s="5">
-        <v>1.675</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="E108" s="6">
+        <v>4612</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1654</v>
+      </c>
+      <c r="G108" s="6">
+        <v>3165</v>
+      </c>
+      <c r="H108" s="6">
+        <v>3915</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1675</v>
+      </c>
+      <c r="J108" s="7">
         <v>161</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="7">
         <v>10</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>221</v>
       </c>
-      <c r="M108" s="5">
-        <v>17.241</v>
+      <c r="M108" s="6">
+        <v>17241</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5288,7 +5300,7 @@
       <c r="L110" s="4">
         <v>2</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="7">
         <v>381</v>
       </c>
     </row>
@@ -5327,7 +5339,7 @@
       <c r="L111" s="4">
         <v>1</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="7">
         <v>355</v>
       </c>
     </row>
@@ -5368,7 +5380,7 @@
       <c r="L112" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="7">
         <v>271</v>
       </c>
     </row>
@@ -5407,7 +5419,7 @@
       <c r="L113" s="4">
         <v>1</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="7">
         <v>223</v>
       </c>
     </row>
@@ -5448,7 +5460,7 @@
       <c r="L114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="7">
         <v>248</v>
       </c>
     </row>
@@ -5487,7 +5499,7 @@
       <c r="L115" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="7">
         <v>174</v>
       </c>
     </row>
@@ -5528,7 +5540,7 @@
       <c r="L116" s="4">
         <v>3</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="7">
         <v>241</v>
       </c>
     </row>
@@ -5567,7 +5579,7 @@
       <c r="L117" s="4">
         <v>3</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="7">
         <v>194</v>
       </c>
     </row>
@@ -5608,7 +5620,7 @@
       <c r="L118" s="4">
         <v>2</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="7">
         <v>268</v>
       </c>
     </row>
@@ -5647,7 +5659,7 @@
       <c r="L119" s="4">
         <v>2</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="7">
         <v>228</v>
       </c>
     </row>
@@ -5688,7 +5700,7 @@
       <c r="L120" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="7">
         <v>275</v>
       </c>
     </row>
@@ -5727,7 +5739,7 @@
       <c r="L121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="7">
         <v>243</v>
       </c>
     </row>
@@ -5768,7 +5780,7 @@
       <c r="L122" s="4">
         <v>1</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="7">
         <v>283</v>
       </c>
     </row>
@@ -5807,7 +5819,7 @@
       <c r="L123" s="4">
         <v>1</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="7">
         <v>262</v>
       </c>
     </row>
@@ -5848,7 +5860,7 @@
       <c r="L124" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="7">
         <v>297</v>
       </c>
     </row>
@@ -5887,7 +5899,7 @@
       <c r="L125" s="4">
         <v>4</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="7">
         <v>248</v>
       </c>
     </row>
@@ -5928,7 +5940,7 @@
       <c r="L126" s="4">
         <v>2</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="7">
         <v>315</v>
       </c>
     </row>
@@ -5967,7 +5979,7 @@
       <c r="L127" s="4">
         <v>1</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="7">
         <v>257</v>
       </c>
     </row>
@@ -6008,7 +6020,7 @@
       <c r="L128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="7">
         <v>269</v>
       </c>
     </row>
@@ -6047,7 +6059,7 @@
       <c r="L129" s="4">
         <v>2</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="7">
         <v>267</v>
       </c>
     </row>
@@ -6088,7 +6100,7 @@
       <c r="L130" s="4">
         <v>2</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>199</v>
       </c>
     </row>
@@ -6127,7 +6139,7 @@
       <c r="L131" s="4">
         <v>2</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="7">
         <v>234</v>
       </c>
     </row>
@@ -6168,7 +6180,7 @@
       <c r="L132" s="4">
         <v>6</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>298</v>
       </c>
     </row>
@@ -6207,7 +6219,7 @@
       <c r="L133" s="4">
         <v>7</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="7">
         <v>367</v>
       </c>
     </row>
@@ -6215,46 +6227,46 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="7">
         <v>494</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="7">
         <v>339</v>
       </c>
-      <c r="E134" s="5">
-        <v>1.8979999999999999</v>
-      </c>
-      <c r="F134" s="5">
+      <c r="E134" s="6">
+        <v>1898</v>
+      </c>
+      <c r="F134" s="7">
         <v>508</v>
       </c>
-      <c r="G134" s="5">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>1.44</v>
-      </c>
-      <c r="I134" s="5">
+      <c r="G134" s="6">
+        <v>1045</v>
+      </c>
+      <c r="H134" s="6">
+        <v>1440</v>
+      </c>
+      <c r="I134" s="7">
         <v>592</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="7">
         <v>35</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>4</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>42</v>
       </c>
-      <c r="M134" s="5">
-        <v>6.3970000000000002</v>
+      <c r="M134" s="6">
+        <v>6397</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6326,7 +6338,7 @@
       <c r="L136" s="4">
         <v>4</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="7">
         <v>250</v>
       </c>
     </row>
@@ -6365,7 +6377,7 @@
       <c r="L137" s="4">
         <v>2</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="7">
         <v>221</v>
       </c>
     </row>
@@ -6406,7 +6418,7 @@
       <c r="L138" s="4">
         <v>1</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="7">
         <v>245</v>
       </c>
     </row>
@@ -6445,7 +6457,7 @@
       <c r="L139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="7">
         <v>222</v>
       </c>
     </row>
@@ -6486,7 +6498,7 @@
       <c r="L140" s="4">
         <v>1</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="7">
         <v>216</v>
       </c>
     </row>
@@ -6525,7 +6537,7 @@
       <c r="L141" s="4">
         <v>2</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="7">
         <v>172</v>
       </c>
     </row>
@@ -6566,7 +6578,7 @@
       <c r="L142" s="4">
         <v>5</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="7">
         <v>220</v>
       </c>
     </row>
@@ -6605,7 +6617,7 @@
       <c r="L143" s="4">
         <v>5</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="7">
         <v>149</v>
       </c>
     </row>
@@ -6646,7 +6658,7 @@
       <c r="L144" s="4">
         <v>5</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="7">
         <v>180</v>
       </c>
     </row>
@@ -6685,7 +6697,7 @@
       <c r="L145" s="4">
         <v>3</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="7">
         <v>184</v>
       </c>
     </row>
@@ -6726,7 +6738,7 @@
       <c r="L146" s="4">
         <v>5</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="7">
         <v>189</v>
       </c>
     </row>
@@ -6765,7 +6777,7 @@
       <c r="L147" s="4">
         <v>3</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="7">
         <v>159</v>
       </c>
     </row>
@@ -6806,7 +6818,7 @@
       <c r="L148" s="4">
         <v>5</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="7">
         <v>187</v>
       </c>
     </row>
@@ -6845,7 +6857,7 @@
       <c r="L149" s="4">
         <v>7</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="7">
         <v>200</v>
       </c>
     </row>
@@ -6886,7 +6898,7 @@
       <c r="L150" s="4">
         <v>5</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="7">
         <v>217</v>
       </c>
     </row>
@@ -6925,7 +6937,7 @@
       <c r="L151" s="4">
         <v>10</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="7">
         <v>280</v>
       </c>
     </row>
@@ -6966,7 +6978,7 @@
       <c r="L152" s="4">
         <v>6</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="7">
         <v>266</v>
       </c>
     </row>
@@ -7005,7 +7017,7 @@
       <c r="L153" s="4">
         <v>7</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="7">
         <v>220</v>
       </c>
     </row>
@@ -7046,7 +7058,7 @@
       <c r="L154" s="4">
         <v>3</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>268</v>
       </c>
     </row>
@@ -7085,7 +7097,7 @@
       <c r="L155" s="4">
         <v>11</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="7">
         <v>231</v>
       </c>
     </row>
@@ -7126,7 +7138,7 @@
       <c r="L156" s="4">
         <v>8</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>198</v>
       </c>
     </row>
@@ -7165,7 +7177,7 @@
       <c r="L157" s="4">
         <v>6</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>156</v>
       </c>
     </row>
@@ -7206,7 +7218,7 @@
       <c r="L158" s="4">
         <v>10</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>192</v>
       </c>
     </row>
@@ -7245,7 +7257,7 @@
       <c r="L159" s="4">
         <v>15</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="7">
         <v>259</v>
       </c>
     </row>
@@ -7253,50 +7265,60 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="7">
         <v>184</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="7">
         <v>205</v>
       </c>
-      <c r="E160" s="5">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="F160" s="5">
+      <c r="E160" s="6">
+        <v>1568</v>
+      </c>
+      <c r="F160" s="7">
         <v>396</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G160" s="7">
         <v>709</v>
       </c>
-      <c r="H160" s="5">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="I160" s="5">
+      <c r="H160" s="6">
+        <v>1047</v>
+      </c>
+      <c r="I160" s="7">
         <v>749</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="7">
         <v>86</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>8</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>129</v>
       </c>
-      <c r="M160" s="5">
-        <v>5.0810000000000004</v>
+      <c r="M160" s="6">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
